--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-60-0.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-60-0.xlsx
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1805</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,48 +467,48 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="F3">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="F4">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -519,25 +519,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>1507</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -545,22 +545,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>260</v>
+        <v>468</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>260</v>
+        <v>468</v>
       </c>
       <c r="F6">
-        <v>495</v>
+        <v>600</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -571,25 +571,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>302</v>
+        <v>486</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>302</v>
+        <v>486</v>
       </c>
       <c r="F7">
-        <v>510</v>
+        <v>632</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -597,77 +597,77 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="F8">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>438</v>
+        <v>537</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>438</v>
+        <v>537</v>
       </c>
       <c r="F9">
-        <v>606</v>
+        <v>2278</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>461</v>
+        <v>710</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>461</v>
+        <v>710</v>
       </c>
       <c r="F10">
-        <v>729</v>
+        <v>2178</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -675,51 +675,51 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>463</v>
+        <v>775</v>
       </c>
       <c r="F11">
-        <v>722</v>
+        <v>894</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>464</v>
+        <v>835</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>464</v>
+        <v>835</v>
       </c>
       <c r="F12">
-        <v>756</v>
+        <v>912</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -727,51 +727,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>502</v>
+        <v>876</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>502</v>
+        <v>876</v>
       </c>
       <c r="F13">
-        <v>713</v>
+        <v>1003</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>520</v>
+        <v>880</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>520</v>
+        <v>880</v>
       </c>
       <c r="F14">
-        <v>785</v>
+        <v>978</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -779,51 +779,51 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>540</v>
+        <v>932</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>540</v>
+        <v>932</v>
       </c>
       <c r="F15">
-        <v>705</v>
+        <v>2677</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>643</v>
+        <v>983</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>643</v>
+        <v>983</v>
       </c>
       <c r="F16">
-        <v>928</v>
+        <v>1100</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -831,25 +831,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>807</v>
+        <v>1182</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>807</v>
+        <v>1182</v>
       </c>
       <c r="F17">
-        <v>1018</v>
+        <v>1313</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -857,178 +857,178 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>842</v>
+        <v>1187</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>842</v>
+        <v>1187</v>
       </c>
       <c r="F18">
-        <v>997</v>
+        <v>1340</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>849</v>
+        <v>1223</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>849</v>
+        <v>1223</v>
       </c>
       <c r="F19">
-        <v>1106</v>
+        <v>2859</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>859</v>
+        <v>1295</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>859</v>
+        <v>1295</v>
       </c>
       <c r="F20">
-        <v>1049</v>
+        <v>1379</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>1363</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>985</v>
+        <v>1363</v>
       </c>
       <c r="F21">
-        <v>1232</v>
+        <v>1470</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>1004</v>
+        <v>1438</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>1004</v>
+        <v>1438</v>
       </c>
       <c r="F22">
-        <v>1236</v>
+        <v>1531</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>1068</v>
+        <v>1603</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>1068</v>
+        <v>1603</v>
       </c>
       <c r="F23">
-        <v>1253</v>
+        <v>1699</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>1208</v>
+        <v>1675</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>1208</v>
+        <v>1675</v>
       </c>
       <c r="F24">
-        <v>2258</v>
+        <v>1813</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1039,28 +1039,28 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>1223</v>
+        <v>1777</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>1223</v>
+        <v>1777</v>
       </c>
       <c r="F25">
-        <v>1421</v>
+        <v>3405</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,25 +1068,25 @@
         <v>53</v>
       </c>
       <c r="B26">
-        <v>1234</v>
+        <v>1825</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>1234</v>
+        <v>1825</v>
       </c>
       <c r="F26">
-        <v>1466</v>
+        <v>1959</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>1452</v>
+        <v>1829</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>1452</v>
+        <v>1829</v>
       </c>
       <c r="F27">
-        <v>1662</v>
+        <v>1956</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1117,48 +1117,48 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>1514</v>
+        <v>1841</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>1514</v>
+        <v>1841</v>
       </c>
       <c r="F28">
-        <v>1706</v>
+        <v>3285</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>1591</v>
+        <v>1862</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>1591</v>
+        <v>1862</v>
       </c>
       <c r="F29">
-        <v>1895</v>
+        <v>3488</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1169,48 +1169,48 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>1661</v>
+        <v>1864</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>1661</v>
+        <v>1864</v>
       </c>
       <c r="F30">
-        <v>2657</v>
+        <v>1956</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>1671</v>
+        <v>1895</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E31">
-        <v>1671</v>
+        <v>1895</v>
       </c>
       <c r="F31">
-        <v>1874</v>
+        <v>2034</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1221,25 +1221,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>1703</v>
+        <v>1946</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>1703</v>
+        <v>1946</v>
       </c>
       <c r="F32">
-        <v>2004</v>
+        <v>2053</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1247,181 +1247,181 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>1755</v>
+        <v>2003</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1755</v>
+        <v>2003</v>
       </c>
       <c r="F33">
-        <v>1976</v>
+        <v>2094</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>1789</v>
+        <v>2009</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>1789</v>
+        <v>2009</v>
       </c>
       <c r="F34">
-        <v>2085</v>
+        <v>2106</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>1836</v>
+        <v>2037</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>1836</v>
+        <v>2037</v>
       </c>
       <c r="F35">
-        <v>2082</v>
+        <v>2174</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1849</v>
+        <v>2145</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>1849</v>
+        <v>2145</v>
       </c>
       <c r="F36">
-        <v>2059</v>
+        <v>3337</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>1899</v>
+        <v>2216</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>1899</v>
+        <v>2216</v>
       </c>
       <c r="F37">
-        <v>2067</v>
+        <v>2365</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>1942</v>
+        <v>2275</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>1942</v>
+        <v>2275</v>
       </c>
       <c r="F38">
-        <v>2133</v>
+        <v>2388</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>1979</v>
+        <v>2296</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>1979</v>
+        <v>2296</v>
       </c>
       <c r="F39">
-        <v>2244</v>
+        <v>2402</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1429,51 +1429,51 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>2082</v>
+        <v>2350</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>2082</v>
+        <v>2350</v>
       </c>
       <c r="F40">
-        <v>2308</v>
+        <v>3536</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>2142</v>
+        <v>2413</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>2142</v>
+        <v>2413</v>
       </c>
       <c r="F41">
-        <v>3567</v>
+        <v>2542</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1481,256 +1481,256 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>2184</v>
+        <v>2437</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>2184</v>
+        <v>2437</v>
       </c>
       <c r="F42">
-        <v>2393</v>
+        <v>3970</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>2212</v>
+        <v>2519</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>2212</v>
+        <v>2519</v>
       </c>
       <c r="F43">
-        <v>2399</v>
+        <v>4185</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>2268</v>
+        <v>2567</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>34</v>
       </c>
       <c r="E44">
-        <v>2268</v>
+        <v>2567</v>
       </c>
       <c r="F44">
-        <v>2536</v>
+        <v>4384</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2269</v>
+        <v>2688</v>
       </c>
       <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>19</v>
-      </c>
       <c r="E45">
-        <v>2269</v>
+        <v>2688</v>
       </c>
       <c r="F45">
-        <v>2501</v>
+        <v>3712</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>2271</v>
+        <v>2757</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>2271</v>
+        <v>2757</v>
       </c>
       <c r="F46">
-        <v>2573</v>
+        <v>2854</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>2306</v>
+        <v>2812</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47">
-        <v>2306</v>
+        <v>2812</v>
       </c>
       <c r="F47">
-        <v>2477</v>
+        <v>4229</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>2373</v>
+        <v>2830</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2373</v>
+        <v>2830</v>
       </c>
       <c r="F48">
-        <v>4201</v>
+        <v>2935</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>2402</v>
+        <v>3076</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>2402</v>
+        <v>3076</v>
       </c>
       <c r="F49">
-        <v>2576</v>
+        <v>3190</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>2405</v>
+        <v>3161</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>2405</v>
+        <v>3161</v>
       </c>
       <c r="F50">
-        <v>2580</v>
+        <v>3288</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>2430</v>
+        <v>3212</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>2430</v>
+        <v>3212</v>
       </c>
       <c r="F51">
-        <v>2635</v>
+        <v>3312</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1741,25 +1741,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>2683</v>
+        <v>3309</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E52">
-        <v>2683</v>
+        <v>3309</v>
       </c>
       <c r="F52">
-        <v>2948</v>
+        <v>3439</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1767,48 +1767,48 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>2694</v>
+        <v>3380</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53">
-        <v>2694</v>
+        <v>3380</v>
       </c>
       <c r="F53">
-        <v>2887</v>
+        <v>3496</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>2707</v>
+        <v>3384</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="E54">
-        <v>2707</v>
+        <v>3384</v>
       </c>
       <c r="F54">
-        <v>2895</v>
+        <v>3532</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -1819,80 +1819,80 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>2754</v>
+        <v>3387</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>2754</v>
+        <v>3387</v>
       </c>
       <c r="F55">
-        <v>3999</v>
+        <v>3491</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>3086</v>
+        <v>3484</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>3086</v>
+        <v>3484</v>
       </c>
       <c r="F56">
-        <v>3373</v>
+        <v>5326</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>3090</v>
+        <v>3495</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>3090</v>
+        <v>3495</v>
       </c>
       <c r="F57">
-        <v>4281</v>
+        <v>3598</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,19 +1900,19 @@
         <v>54</v>
       </c>
       <c r="B58">
-        <v>3247</v>
+        <v>3498</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>3247</v>
+        <v>3498</v>
       </c>
       <c r="F58">
-        <v>3537</v>
+        <v>4796</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -1923,25 +1923,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>3354</v>
+        <v>3510</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>3354</v>
+        <v>3510</v>
       </c>
       <c r="F59">
-        <v>4453</v>
+        <v>3637</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -1952,51 +1952,51 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <v>3456</v>
+        <v>3530</v>
       </c>
       <c r="C60">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>3456</v>
+        <v>3530</v>
       </c>
       <c r="F60">
-        <v>5269</v>
+        <v>3612</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>3507</v>
+        <v>3548</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>3507</v>
+        <v>3548</v>
       </c>
       <c r="F61">
-        <v>4961</v>
+        <v>5171</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
